--- a/Documentação/Plano de UAT - Homol v1.xlsx
+++ b/Documentação/Plano de UAT - Homol v1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiz.sousa\Documents\GitHub\grupo3-provisorio\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CC5717-43C5-4410-9E6E-E72E7E628100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7185" tabRatio="503" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="503" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cenário - Registro Atleta" sheetId="6" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="153">
   <si>
     <t xml:space="preserve">Projeto: </t>
   </si>
@@ -457,12 +458,39 @@
   </si>
   <si>
     <t>Mensagem de Erro informando que "Valor maximo excedido".</t>
+  </si>
+  <si>
+    <t>completo</t>
+  </si>
+  <si>
+    <t>Cadastrar no sistema, informar e-mail sem @.</t>
+  </si>
+  <si>
+    <t>Código do Cliente: testebandtec.com.br</t>
+  </si>
+  <si>
+    <t>Mensagem de Erro informando "não é permitido email sem @"</t>
+  </si>
+  <si>
+    <t>Cadastrar no sistema, colocar o email sem uma conta em algum site de emails</t>
+  </si>
+  <si>
+    <t>Mensagem de Erro informando "posição do ponto esta incorreta"</t>
+  </si>
+  <si>
+    <t>Código do Cliente: teste@.com</t>
+  </si>
+  <si>
+    <t>Mensagem de erro infomando "não é permitido " " no email"</t>
+  </si>
+  <si>
+    <t>Código do Cliente: login teste @bandtec.com.br</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14">
     <font>
       <sz val="10"/>
@@ -806,20 +834,20 @@
     </xf>
   </cellXfs>
   <cellStyles count="14">
-    <cellStyle name="Background" xfId="1"/>
-    <cellStyle name="Card" xfId="2"/>
-    <cellStyle name="Card B" xfId="3"/>
-    <cellStyle name="Card BL" xfId="12"/>
-    <cellStyle name="Card BR" xfId="4"/>
-    <cellStyle name="Card L" xfId="11"/>
-    <cellStyle name="Card R" xfId="5"/>
-    <cellStyle name="Card T" xfId="6"/>
-    <cellStyle name="Card TL" xfId="7"/>
-    <cellStyle name="Card TR" xfId="8"/>
-    <cellStyle name="Column Header" xfId="9"/>
+    <cellStyle name="Background" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Card" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Card B" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Card BL" xfId="12" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Card BR" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Card L" xfId="11" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Card R" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Card T" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Card TL" xfId="7" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Card TR" xfId="8" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Column Header" xfId="9" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Hiperlink" xfId="13" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="10"/>
+    <cellStyle name="Normal 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -902,6 +930,143 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>14941</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>567765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B69B267A-038B-4A67-AC87-273CE421C616}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15486529" y="5401235"/>
+          <a:ext cx="2345765" cy="567765"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7471</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>567765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6836981-6F61-4B93-88E2-99947FFF8E05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15486529" y="4826000"/>
+          <a:ext cx="2338295" cy="567765"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>37353</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagem 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51413787-20B4-4D28-B121-F4F42FC66828}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15486529" y="5976471"/>
+          <a:ext cx="2368177" cy="597647"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -945,7 +1110,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -978,9 +1143,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1013,6 +1195,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1188,29 +1387,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="B18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.7265625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="30.1796875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="35.7265625" style="2" customWidth="1"/>
     <col min="3" max="4" width="38" style="2" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" style="2" customWidth="1"/>
-    <col min="7" max="8" width="20.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="32.28515625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="11.7109375" style="2"/>
+    <col min="5" max="5" width="33.453125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="25.54296875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.81640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="33.36328125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.453125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="20.54296875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.54296875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="20.54296875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="15.453125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="32.26953125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="16.453125" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="11.7265625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1339,7 +1539,7 @@
         <v>29</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="G18" s="21" t="s">
         <v>30</v>
@@ -1368,7 +1568,7 @@
         <v>34</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="G19" s="21" t="s">
         <v>30</v>
@@ -1388,16 +1588,16 @@
         <v>26</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>36</v>
+        <v>148</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>38</v>
+        <v>149</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="G20" s="21" t="s">
         <v>30</v>
@@ -1409,7 +1609,7 @@
       <c r="R20" s="27"/>
       <c r="S20" s="27"/>
     </row>
-    <row r="21" spans="1:19" s="1" customFormat="1" ht="60">
+    <row r="21" spans="1:19" s="1" customFormat="1" ht="45">
       <c r="A21" s="12" t="s">
         <v>39</v>
       </c>
@@ -1417,16 +1617,16 @@
         <v>26</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>41</v>
+        <v>146</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="G21" s="21" t="s">
         <v>30</v>
@@ -1438,7 +1638,7 @@
       <c r="R21" s="27"/>
       <c r="S21" s="27"/>
     </row>
-    <row r="22" spans="1:19" s="1" customFormat="1" ht="60">
+    <row r="22" spans="1:19" s="1" customFormat="1" ht="45">
       <c r="A22" s="12" t="s">
         <v>43</v>
       </c>
@@ -1449,13 +1649,13 @@
         <v>44</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>45</v>
+        <v>152</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="G22" s="21" t="s">
         <v>30</v>
@@ -1484,7 +1684,7 @@
         <v>29</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="G23" s="21" t="s">
         <v>30</v>
@@ -1513,7 +1713,7 @@
         <v>53</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="G24" s="21" t="s">
         <v>30</v>
@@ -1542,7 +1742,7 @@
         <v>56</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="G25" s="21" t="s">
         <v>30</v>
@@ -1571,7 +1771,7 @@
         <v>60</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="G26" s="21" t="s">
         <v>30</v>
@@ -1600,7 +1800,7 @@
         <v>64</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="G27" s="21" t="s">
         <v>30</v>
@@ -1629,7 +1829,7 @@
         <v>67</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="G28" s="21" t="s">
         <v>30</v>
@@ -1658,7 +1858,7 @@
         <v>71</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="G29" s="21" t="s">
         <v>30</v>
@@ -1687,7 +1887,7 @@
         <v>75</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="G30" s="21" t="s">
         <v>30</v>
@@ -1716,7 +1916,7 @@
         <v>79</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="G31" s="21" t="s">
         <v>30</v>
@@ -1745,7 +1945,7 @@
         <v>83</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="G32" s="21" t="s">
         <v>30</v>
@@ -1774,7 +1974,7 @@
         <v>86</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="G33" s="21" t="s">
         <v>30</v>
@@ -1803,7 +2003,7 @@
         <v>86</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="G34" s="21" t="s">
         <v>30</v>
@@ -1832,7 +2032,7 @@
         <v>93</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="G35" s="21" t="s">
         <v>30</v>
@@ -1861,7 +2061,7 @@
         <v>86</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="G36" s="21" t="s">
         <v>30</v>
@@ -1888,7 +2088,7 @@
       <c r="R37" s="27"/>
       <c r="S37" s="27"/>
     </row>
-    <row r="38" spans="1:19" s="1" customFormat="1" ht="15.75">
+    <row r="38" spans="1:19" s="1" customFormat="1">
       <c r="P38" s="27"/>
       <c r="Q38" s="27"/>
       <c r="R38" s="27"/>
@@ -1921,36 +2121,37 @@
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;CSeite &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S45"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.7265625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="30.1796875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="35.7265625" style="2" customWidth="1"/>
     <col min="3" max="4" width="38" style="2" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" style="2" customWidth="1"/>
-    <col min="7" max="8" width="20.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="32.28515625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="11.7109375" style="2"/>
+    <col min="5" max="5" width="33.453125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="25.54296875" style="2" customWidth="1"/>
+    <col min="7" max="8" width="20.81640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.453125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="20.54296875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.54296875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="20.54296875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="15.453125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="32.26953125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="16.453125" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="11.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1958,7 +2159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1966,7 +2167,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -1974,7 +2175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1982,7 +2183,7 @@
         <v>44497</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -1990,11 +2191,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9">
       <c r="A6" s="4"/>
       <c r="B6" s="7"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
@@ -2004,7 +2205,7 @@
       <c r="C8" s="28"/>
       <c r="D8" s="9"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9">
       <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
@@ -2012,12 +2213,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9">
       <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9">
       <c r="F16" s="2" t="s">
         <v>14</v>
       </c>
@@ -2146,7 +2347,7 @@
       <c r="R20" s="27"/>
       <c r="S20" s="27"/>
     </row>
-    <row r="21" spans="1:19" s="1" customFormat="1" ht="60">
+    <row r="21" spans="1:19" s="1" customFormat="1" ht="45">
       <c r="A21" s="12" t="s">
         <v>39</v>
       </c>
@@ -2175,7 +2376,7 @@
       <c r="R21" s="27"/>
       <c r="S21" s="27"/>
     </row>
-    <row r="22" spans="1:19" s="1" customFormat="1" ht="60">
+    <row r="22" spans="1:19" s="1" customFormat="1" ht="45">
       <c r="A22" s="12" t="s">
         <v>43</v>
       </c>
@@ -2625,13 +2826,13 @@
       <c r="R37" s="27"/>
       <c r="S37" s="27"/>
     </row>
-    <row r="38" spans="1:19" s="1" customFormat="1" ht="15.75">
+    <row r="38" spans="1:19" s="1" customFormat="1">
       <c r="P38" s="27"/>
       <c r="Q38" s="27"/>
       <c r="R38" s="27"/>
       <c r="S38" s="27"/>
     </row>
-    <row r="40" spans="1:19" ht="15">
+    <row r="40" spans="1:19">
       <c r="A40" s="16" t="s">
         <v>96</v>
       </c>
@@ -2639,13 +2840,13 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="15">
+    <row r="41" spans="1:19">
       <c r="A41" s="17" t="s">
         <v>98</v>
       </c>
       <c r="B41" s="18"/>
     </row>
-    <row r="45" spans="1:19" ht="15">
+    <row r="45" spans="1:19">
       <c r="A45" s="10"/>
     </row>
   </sheetData>
@@ -2657,33 +2858,33 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="A30" sqref="A30:XFD31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.7265625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="30.1796875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="35.7265625" style="2" customWidth="1"/>
     <col min="3" max="3" width="38" style="2" customWidth="1"/>
-    <col min="4" max="4" width="51.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" style="2" customWidth="1"/>
-    <col min="7" max="8" width="20.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="32.28515625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="11.7109375" style="2"/>
+    <col min="4" max="4" width="51.453125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33.453125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="25.54296875" style="2" customWidth="1"/>
+    <col min="7" max="8" width="20.81640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.453125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="20.54296875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.54296875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="20.54296875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="15.453125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="32.26953125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="16.453125" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="11.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2691,7 +2892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -2699,7 +2900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -2707,7 +2908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -2715,7 +2916,7 @@
         <v>44497</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -2723,11 +2924,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9">
       <c r="A6" s="4"/>
       <c r="B6" s="7"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
@@ -2737,7 +2938,7 @@
       <c r="C8" s="28"/>
       <c r="D8" s="9"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9">
       <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
@@ -2745,12 +2946,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9">
       <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9">
       <c r="F16" s="2" t="s">
         <v>14</v>
       </c>
@@ -2792,7 +2993,7 @@
       <c r="R17" s="27"/>
       <c r="S17" s="27"/>
     </row>
-    <row r="18" spans="1:19" s="1" customFormat="1" ht="60">
+    <row r="18" spans="1:19" s="1" customFormat="1" ht="45">
       <c r="A18" s="12" t="s">
         <v>25</v>
       </c>
@@ -3068,13 +3269,13 @@
       <c r="R27" s="27"/>
       <c r="S27" s="27"/>
     </row>
-    <row r="28" spans="1:19" s="1" customFormat="1" ht="15.75">
+    <row r="28" spans="1:19" s="1" customFormat="1">
       <c r="P28" s="27"/>
       <c r="Q28" s="27"/>
       <c r="R28" s="27"/>
       <c r="S28" s="27"/>
     </row>
-    <row r="30" spans="1:19" ht="15">
+    <row r="30" spans="1:19">
       <c r="A30" s="16" t="s">
         <v>96</v>
       </c>
@@ -3082,23 +3283,15 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="15">
+    <row r="31" spans="1:19">
       <c r="A31" s="17" t="s">
         <v>98</v>
       </c>
       <c r="B31" s="18"/>
     </row>
-    <row r="35" spans="1:1" ht="15">
+    <row r="35" spans="1:1">
       <c r="A35" s="10"/>
     </row>
-    <row r="36" spans="1:1" ht="15"/>
-    <row r="37" spans="1:1" ht="15"/>
-    <row r="38" spans="1:1" ht="15"/>
-    <row r="39" spans="1:1" ht="15"/>
-    <row r="40" spans="1:1" ht="15"/>
-    <row r="41" spans="1:1" ht="15"/>
-    <row r="43" spans="1:1" ht="15"/>
-    <row r="44" spans="1:1" ht="15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B8:C8"/>
@@ -3108,32 +3301,32 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.7265625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="30.1796875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="35.7265625" style="2" customWidth="1"/>
     <col min="3" max="4" width="38" style="2" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" style="2" customWidth="1"/>
-    <col min="7" max="8" width="20.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="32.28515625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="11.7109375" style="2"/>
+    <col min="5" max="5" width="33.453125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="25.54296875" style="2" customWidth="1"/>
+    <col min="7" max="8" width="20.81640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.453125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="20.54296875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.54296875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="20.54296875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="15.453125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="32.26953125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="16.453125" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="11.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3141,7 +3334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -3149,7 +3342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -3157,7 +3350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -3165,7 +3358,7 @@
         <v>44497</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -3173,11 +3366,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9">
       <c r="A6" s="4"/>
       <c r="B6" s="7"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
@@ -3187,7 +3380,7 @@
       <c r="C8" s="28"/>
       <c r="D8" s="9"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9">
       <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
@@ -3195,12 +3388,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9">
       <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9">
       <c r="F16" s="2" t="s">
         <v>14</v>
       </c>
@@ -3242,7 +3435,7 @@
       <c r="R17" s="27"/>
       <c r="S17" s="27"/>
     </row>
-    <row r="18" spans="1:19" s="1" customFormat="1" ht="60">
+    <row r="18" spans="1:19" s="1" customFormat="1" ht="45">
       <c r="A18" s="12" t="s">
         <v>25</v>
       </c>
@@ -3503,11 +3696,10 @@
       <c r="R26" s="27"/>
       <c r="S26" s="27"/>
     </row>
-    <row r="27" spans="1:19" ht="15">
+    <row r="27" spans="1:19">
       <c r="A27" s="10"/>
     </row>
-    <row r="28" spans="1:19" ht="15"/>
-    <row r="29" spans="1:19" ht="15">
+    <row r="29" spans="1:19">
       <c r="A29" s="16" t="s">
         <v>96</v>
       </c>
@@ -3515,24 +3707,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="15">
+    <row r="30" spans="1:19">
       <c r="A30" s="17" t="s">
         <v>98</v>
       </c>
       <c r="B30" s="18"/>
     </row>
-    <row r="31" spans="1:19" ht="15"/>
-    <row r="32" spans="1:19" ht="15"/>
-    <row r="33" ht="15"/>
-    <row r="34" ht="15"/>
-    <row r="35" ht="15"/>
-    <row r="36" ht="15"/>
-    <row r="37" ht="15"/>
-    <row r="38" ht="15"/>
-    <row r="39" ht="15"/>
-    <row r="41" ht="15"/>
-    <row r="42" ht="15"/>
-    <row r="46" ht="15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B8:C8"/>
@@ -3542,32 +3722,32 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.7265625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="30.1796875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="35.7265625" style="2" customWidth="1"/>
     <col min="3" max="4" width="38" style="2" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" style="2" customWidth="1"/>
-    <col min="7" max="8" width="20.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="32.28515625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="11.7109375" style="2"/>
+    <col min="5" max="5" width="33.453125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="25.54296875" style="2" customWidth="1"/>
+    <col min="7" max="8" width="20.81640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.453125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="20.54296875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.54296875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="20.54296875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="15.453125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="32.26953125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="16.453125" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="11.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3575,7 +3755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -3583,7 +3763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -3591,7 +3771,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -3599,7 +3779,7 @@
         <v>44497</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -3607,11 +3787,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9">
       <c r="A6" s="4"/>
       <c r="B6" s="7"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
@@ -3621,7 +3801,7 @@
       <c r="C8" s="28"/>
       <c r="D8" s="9"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9">
       <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
@@ -3629,12 +3809,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9">
       <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9">
       <c r="F16" s="2" t="s">
         <v>14</v>
       </c>
@@ -3894,13 +4074,13 @@
       <c r="R25" s="27"/>
       <c r="S25" s="27"/>
     </row>
-    <row r="26" spans="1:19" s="1" customFormat="1" ht="15.75">
+    <row r="26" spans="1:19" s="1" customFormat="1">
       <c r="P26" s="27"/>
       <c r="Q26" s="27"/>
       <c r="R26" s="27"/>
       <c r="S26" s="27"/>
     </row>
-    <row r="28" spans="1:19" ht="15">
+    <row r="28" spans="1:19">
       <c r="A28" s="16" t="s">
         <v>96</v>
       </c>
@@ -3908,23 +4088,15 @@
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="15">
+    <row r="29" spans="1:19">
       <c r="A29" s="17" t="s">
         <v>98</v>
       </c>
       <c r="B29" s="18"/>
     </row>
-    <row r="33" spans="1:1" ht="15">
+    <row r="33" spans="1:1">
       <c r="A33" s="10"/>
     </row>
-    <row r="34" spans="1:1" ht="15"/>
-    <row r="35" spans="1:1" ht="15"/>
-    <row r="36" spans="1:1" ht="15"/>
-    <row r="37" spans="1:1" ht="15"/>
-    <row r="38" spans="1:1" ht="15"/>
-    <row r="39" spans="1:1" ht="15"/>
-    <row r="41" spans="1:1" ht="15"/>
-    <row r="42" spans="1:1" ht="15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B8:C8"/>
@@ -3934,32 +4106,32 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView topLeftCell="B16" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.7265625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="30.1796875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="35.7265625" style="2" customWidth="1"/>
     <col min="3" max="4" width="38" style="2" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" style="2" customWidth="1"/>
-    <col min="7" max="8" width="20.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="32.28515625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="11.7109375" style="2"/>
+    <col min="5" max="5" width="33.453125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="25.54296875" style="2" customWidth="1"/>
+    <col min="7" max="8" width="20.81640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.453125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="20.54296875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.54296875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="20.54296875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="15.453125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="32.26953125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="16.453125" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="11.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3967,7 +4139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -3975,7 +4147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -3983,7 +4155,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -3991,7 +4163,7 @@
         <v>44497</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -3999,11 +4171,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9">
       <c r="A6" s="4"/>
       <c r="B6" s="7"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
@@ -4013,7 +4185,7 @@
       <c r="C8" s="28"/>
       <c r="D8" s="9"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9">
       <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
@@ -4021,12 +4193,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9">
       <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9">
       <c r="F16" s="2" t="s">
         <v>14</v>
       </c>
@@ -4228,13 +4400,13 @@
       <c r="R23" s="27"/>
       <c r="S23" s="27"/>
     </row>
-    <row r="24" spans="1:19" s="1" customFormat="1" ht="15.75">
+    <row r="24" spans="1:19" s="1" customFormat="1">
       <c r="P24" s="27"/>
       <c r="Q24" s="27"/>
       <c r="R24" s="27"/>
       <c r="S24" s="27"/>
     </row>
-    <row r="26" spans="1:19" ht="15">
+    <row r="26" spans="1:19">
       <c r="A26" s="16" t="s">
         <v>96</v>
       </c>
@@ -4242,25 +4414,15 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="15">
+    <row r="27" spans="1:19">
       <c r="A27" s="17" t="s">
         <v>98</v>
       </c>
       <c r="B27" s="18"/>
     </row>
-    <row r="31" spans="1:19" ht="15">
+    <row r="31" spans="1:19">
       <c r="A31" s="10"/>
     </row>
-    <row r="32" spans="1:19" ht="15"/>
-    <row r="33" ht="15"/>
-    <row r="34" ht="15"/>
-    <row r="35" ht="15"/>
-    <row r="36" ht="15"/>
-    <row r="37" ht="15"/>
-    <row r="38" ht="15"/>
-    <row r="40" ht="15"/>
-    <row r="41" ht="15"/>
-    <row r="45" ht="15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B8:C8"/>
@@ -4270,32 +4432,32 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.7265625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="30.1796875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="35.7265625" style="2" customWidth="1"/>
     <col min="3" max="4" width="38" style="2" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" style="2" customWidth="1"/>
-    <col min="7" max="8" width="20.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="32.28515625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="11.7109375" style="2"/>
+    <col min="5" max="5" width="33.453125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="25.54296875" style="2" customWidth="1"/>
+    <col min="7" max="8" width="20.81640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.453125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="20.54296875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.54296875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="20.54296875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="15.453125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="32.26953125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="16.453125" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="11.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4303,7 +4465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -4311,7 +4473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -4319,7 +4481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -4327,7 +4489,7 @@
         <v>44497</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -4335,11 +4497,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9">
       <c r="A6" s="4"/>
       <c r="B6" s="7"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
@@ -4349,7 +4511,7 @@
       <c r="C8" s="28"/>
       <c r="D8" s="9"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9">
       <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
@@ -4357,12 +4519,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9">
       <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9">
       <c r="F16" s="2" t="s">
         <v>14</v>
       </c>
@@ -4506,13 +4668,13 @@
       <c r="R21" s="27"/>
       <c r="S21" s="27"/>
     </row>
-    <row r="22" spans="1:19" s="1" customFormat="1" ht="15.75">
+    <row r="22" spans="1:19" s="1" customFormat="1">
       <c r="P22" s="27"/>
       <c r="Q22" s="27"/>
       <c r="R22" s="27"/>
       <c r="S22" s="27"/>
     </row>
-    <row r="24" spans="1:19" ht="15">
+    <row r="24" spans="1:19">
       <c r="A24" s="16" t="s">
         <v>96</v>
       </c>
@@ -4520,27 +4682,15 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="15">
+    <row r="25" spans="1:19">
       <c r="A25" s="17" t="s">
         <v>98</v>
       </c>
       <c r="B25" s="18"/>
     </row>
-    <row r="29" spans="1:19" ht="15">
+    <row r="29" spans="1:19">
       <c r="A29" s="10"/>
     </row>
-    <row r="30" spans="1:19" ht="15"/>
-    <row r="31" spans="1:19" ht="15"/>
-    <row r="32" spans="1:19" ht="15"/>
-    <row r="33" ht="15"/>
-    <row r="34" ht="15"/>
-    <row r="35" ht="15"/>
-    <row r="36" ht="15"/>
-    <row r="37" ht="15"/>
-    <row r="39" ht="15"/>
-    <row r="40" ht="15"/>
-    <row r="44" ht="15"/>
-    <row r="45" ht="15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B8:C8"/>

--- a/Documentação/Plano de UAT - Homol v1.xlsx
+++ b/Documentação/Plano de UAT - Homol v1.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiz.sousa\Documents\GitHub\grupo3-provisorio\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CC5717-43C5-4410-9E6E-E72E7E628100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F417D3B8-B313-4EA2-BE16-4AC221909961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="503" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cenário - Registro Atleta" sheetId="6" r:id="rId1"/>
     <sheet name="Cenário - Registro Dono de Quad" sheetId="7" r:id="rId2"/>
-    <sheet name="Cenario - Login Atleta" sheetId="8" r:id="rId3"/>
-    <sheet name="Cenário - Login Dono" sheetId="9" r:id="rId4"/>
+    <sheet name="Cenário - Login Dono" sheetId="9" r:id="rId3"/>
+    <sheet name="Cenario - Login Atleta" sheetId="8" r:id="rId4"/>
     <sheet name="Cenário - Cadastrar Quadra Dono" sheetId="10" r:id="rId5"/>
     <sheet name="Cenário - Cadastro de Pagamento" sheetId="11" r:id="rId6"/>
     <sheet name="Cenário - Reserva Quadra Atleta" sheetId="13" r:id="rId7"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="153">
   <si>
     <t xml:space="preserve">Projeto: </t>
   </si>
@@ -136,9 +136,6 @@
     <t>Id3</t>
   </si>
   <si>
-    <t>Cadastrar no sistema, começar o e-mail com caractere especial permitido.</t>
-  </si>
-  <si>
     <t>Código do Cliente: _login@bandtec.com.br</t>
   </si>
   <si>
@@ -148,27 +145,15 @@
     <t>Id4</t>
   </si>
   <si>
-    <t>Cadastrar no sistema, informar e-mail com caractere especial não permitido.</t>
-  </si>
-  <si>
     <t>Código do Cliente: teste@teste@bandtec.com.br</t>
   </si>
   <si>
-    <t>Mensagem de Erro informando "não é permitido somente numerais em login"</t>
-  </si>
-  <si>
     <t>Id5</t>
   </si>
   <si>
-    <t>Cadastrar no sistema, informar e-mail com numeros exclusivamente.</t>
-  </si>
-  <si>
     <t>Código do Cliente: login 7777777@bandtec.com.br</t>
   </si>
   <si>
-    <t>Mensagem de erro infomando "não é permitido espaço no e-mail"</t>
-  </si>
-  <si>
     <t>Id6</t>
   </si>
   <si>
@@ -268,18 +253,6 @@
     <t>Mensagem de erro informando "Dia incorreto. Favor informar mes válido"</t>
   </si>
   <si>
-    <t>Id15</t>
-  </si>
-  <si>
-    <t>Cadastrar no sistema, informar data diferente do formato de dd/mm/aaaa.</t>
-  </si>
-  <si>
-    <t>Código do Cliente: 12/25/2001</t>
-  </si>
-  <si>
-    <t>Mensagem de erro informando "Data invalida. Favor preencher formato corretamente"</t>
-  </si>
-  <si>
     <t>Id16</t>
   </si>
   <si>
@@ -292,30 +265,12 @@
     <t>Id17</t>
   </si>
   <si>
-    <t>Cadastrar no sistema, informar telefone sem o DDD.</t>
-  </si>
-  <si>
-    <t>Código do Cliente: "() 123456789"</t>
-  </si>
-  <si>
     <t>Id18</t>
   </si>
   <si>
-    <t>Cadastrar no sistema, informar telefone com caractere especial.</t>
-  </si>
-  <si>
-    <t>Código do Cliente: "(11) 1234_5678"</t>
-  </si>
-  <si>
-    <t>Mensagem de erro informando "Campo somente para numeros. Favor preencher corretamente"</t>
-  </si>
-  <si>
     <t>Id19</t>
   </si>
   <si>
-    <t>Cadastrar no sistema, não informar valores na label de telefone.</t>
-  </si>
-  <si>
     <t>Tester:</t>
   </si>
   <si>
@@ -485,6 +440,51 @@
   </si>
   <si>
     <t>Código do Cliente: login teste @bandtec.com.br</t>
+  </si>
+  <si>
+    <t>Mensagem de erro informando "este campo não pode permanecer vazio"</t>
+  </si>
+  <si>
+    <t>Cadastrar no sistema, informar numeros a ,mais no campo CPF.</t>
+  </si>
+  <si>
+    <t>Código do Cliente: "123.456.789.101"</t>
+  </si>
+  <si>
+    <t>Cadastrar no sistema, campo CPF vazio</t>
+  </si>
+  <si>
+    <t>Mensagem de erro informando "Campo vazio"</t>
+  </si>
+  <si>
+    <t>Cadastrar no sistema, numeros  a menos no campo CPF</t>
+  </si>
+  <si>
+    <t>Mensagem de Erro informando "campo vazio"</t>
+  </si>
+  <si>
+    <t>Código do Cliente: teste@.com.br</t>
+  </si>
+  <si>
+    <t>Cadastrar no sistema, colocar o email sem uma conta em algum site de emails.</t>
+  </si>
+  <si>
+    <t>Cadastrar no sistema, informar e-mail sem @..</t>
+  </si>
+  <si>
+    <t>Cadastrar no sistema, informar e-mail com espaços</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cadastrar no sistema, informar numeros a ,mais no campo CPF.</t>
+  </si>
+  <si>
+    <t>Mensagem de erro informando "Numeros a mais no campo cpf"</t>
+  </si>
+  <si>
+    <t>Código do Cliente: "123.456"</t>
+  </si>
+  <si>
+    <t>Mensagem de erro informando " Favor preencher corretamente"</t>
   </si>
 </sst>
 </file>
@@ -1064,6 +1064,1111 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>14941</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>956235</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagem 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A100BD8-5A69-45FC-9EFE-6874C968B453}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15486530" y="11273118"/>
+          <a:ext cx="2345764" cy="956235"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7471</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagem 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7897EBA2-6986-460B-A94A-431BC45F96DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15486529" y="10316883"/>
+          <a:ext cx="2338295" cy="956236"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1449293</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>7470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>948766</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagem 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EF7F3D7-9FE2-4C23-80AF-AE593FA8407A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15479058" y="12236823"/>
+          <a:ext cx="2338295" cy="941296"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagem 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE8B81E5-C714-4AE5-8521-FB1586F899D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15486530" y="13185588"/>
+          <a:ext cx="2330824" cy="978647"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7471</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>956235</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagem 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9A89B59-E6AF-44C6-9E3E-6E02C0E2929D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15486529" y="14141824"/>
+          <a:ext cx="2338295" cy="956235"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>14941</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>7472</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagem 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F4F0708-9EF1-4200-AAA3-B4B817B0DE05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15486530" y="16054295"/>
+          <a:ext cx="2345764" cy="963706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7470</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>941295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>23109</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>14943</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagem 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B5442C0-0F7C-48EC-B900-96B57B6CF011}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15493999" y="16995589"/>
+          <a:ext cx="2346463" cy="986118"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>14941</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>14941</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Imagem 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEAC04D4-429E-41C2-8312-47B43E3BCB75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15486529" y="17966766"/>
+          <a:ext cx="2345765" cy="971176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>14941</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>14942</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagem 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DD6FAB8-EFDB-43F8-A89A-3B64BA54DC85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15486529" y="18923001"/>
+          <a:ext cx="2345765" cy="971176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7471</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>358588</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7471</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>29883</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Imagem 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FF4B837-D0E2-4A61-94AB-216F26A8639C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15494000" y="3466353"/>
+          <a:ext cx="2330824" cy="627530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7471</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>7471</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Imagem 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40CDE07D-8EC5-4711-B471-C610E74CD675}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15486529" y="4064001"/>
+          <a:ext cx="2338295" cy="582705"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>565150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3D1D610-6108-46DF-B111-B9C6754DE2AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15487650" y="3530600"/>
+          <a:ext cx="1454150" cy="565150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B412DDFF-614D-40B3-B422-25CF51C2C836}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15487651" y="4102100"/>
+          <a:ext cx="1454150" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1435101</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>567765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagem 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2FEEA69-F7B2-4188-BBDD-D9565A39316F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15487651" y="4864100"/>
+          <a:ext cx="1435100" cy="567765"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>6351</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>567765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagem 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDBC1EEB-9F5A-4483-BD32-BD2E24E649B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15487651" y="5435600"/>
+          <a:ext cx="1460500" cy="567765"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>26147</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagem 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5359BBD0-9278-4F52-BB4F-E3428E660A4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15487651" y="6007100"/>
+          <a:ext cx="1454150" cy="597647"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1447801</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>956236</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagem 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D13F40E8-E020-426B-90A1-428AC1F33D64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15487651" y="10350500"/>
+          <a:ext cx="1447800" cy="956236"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>956235</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagem 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05119446-7A82-45AF-A780-E1CD8E85B721}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15487650" y="11309350"/>
+          <a:ext cx="1454150" cy="956235"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>941296</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagem 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E45C9D65-E6A6-43E0-948D-F1EC551B1829}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15487651" y="12268200"/>
+          <a:ext cx="1454150" cy="941296"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1447800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>13447</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagem 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF4E392E-C592-48DC-8E63-73DB46D8F62F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15500350" y="13220700"/>
+          <a:ext cx="1435100" cy="978647"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>12701</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>956235</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagem 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EF79985-D98C-4830-8232-64503B086B3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15487651" y="14185900"/>
+          <a:ext cx="1466850" cy="956235"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>4856</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Imagem 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA3E7F6D-5BF7-4DFD-91D9-AECDBD46CCFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15487650" y="15144750"/>
+          <a:ext cx="1466850" cy="963706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1454149</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>27268</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagem 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81BD504C-6CD4-4D7A-B247-6C5B4F786284}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15487650" y="16103600"/>
+          <a:ext cx="1454149" cy="986118"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1447801</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>12326</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Imagem 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68824DA7-C51D-4CF7-BE6F-2C9103785351}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15487651" y="17062450"/>
+          <a:ext cx="1447800" cy="971176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>25401</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>12326</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Imagem 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E40AD7E4-728C-4145-8815-37BB26D59C3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15487651" y="18021300"/>
+          <a:ext cx="1479550" cy="971176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1388,10 +2493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S45"/>
+  <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7265625" defaultRowHeight="15.5"/>
@@ -1539,7 +2644,7 @@
         <v>29</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G18" s="21" t="s">
         <v>30</v>
@@ -1551,7 +2656,7 @@
       <c r="R18" s="27"/>
       <c r="S18" s="27"/>
     </row>
-    <row r="19" spans="1:19" s="1" customFormat="1" ht="60">
+    <row r="19" spans="1:19" s="1" customFormat="1" ht="45">
       <c r="A19" s="12" t="s">
         <v>31</v>
       </c>
@@ -1565,10 +2670,10 @@
         <v>33</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>34</v>
+        <v>144</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G19" s="21" t="s">
         <v>30</v>
@@ -1588,16 +2693,16 @@
         <v>26</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G20" s="21" t="s">
         <v>30</v>
@@ -1611,22 +2716,22 @@
     </row>
     <row r="21" spans="1:19" s="1" customFormat="1" ht="45">
       <c r="A21" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G21" s="21" t="s">
         <v>30</v>
@@ -1640,22 +2745,22 @@
     </row>
     <row r="22" spans="1:19" s="1" customFormat="1" ht="45">
       <c r="A22" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>44</v>
+        <v>148</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G22" s="21" t="s">
         <v>30</v>
@@ -1667,29 +2772,29 @@
       <c r="R22" s="27"/>
       <c r="S22" s="27"/>
     </row>
-    <row r="23" spans="1:19" s="1" customFormat="1" ht="70.5" customHeight="1">
+    <row r="23" spans="1:19" s="1" customFormat="1" ht="75.75" customHeight="1">
       <c r="A23" s="12" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G23" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="H23" s="22"/>
+      <c r="H23" s="23"/>
       <c r="I23" s="23"/>
       <c r="P23" s="27"/>
       <c r="Q23" s="27"/>
@@ -1698,22 +2803,22 @@
     </row>
     <row r="24" spans="1:19" s="1" customFormat="1" ht="75.75" customHeight="1">
       <c r="A24" s="12" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G24" s="21" t="s">
         <v>30</v>
@@ -1727,22 +2832,22 @@
     </row>
     <row r="25" spans="1:19" s="1" customFormat="1" ht="75.75" customHeight="1">
       <c r="A25" s="12" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G25" s="21" t="s">
         <v>30</v>
@@ -1756,22 +2861,22 @@
     </row>
     <row r="26" spans="1:19" s="1" customFormat="1" ht="75.75" customHeight="1">
       <c r="A26" s="12" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G26" s="21" t="s">
         <v>30</v>
@@ -1785,22 +2890,22 @@
     </row>
     <row r="27" spans="1:19" s="1" customFormat="1" ht="75.75" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G27" s="21" t="s">
         <v>30</v>
@@ -1814,22 +2919,22 @@
     </row>
     <row r="28" spans="1:19" s="1" customFormat="1" ht="75.75" customHeight="1">
       <c r="A28" s="12" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>33</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G28" s="21" t="s">
         <v>30</v>
@@ -1843,22 +2948,22 @@
     </row>
     <row r="29" spans="1:19" s="1" customFormat="1" ht="75.75" customHeight="1">
       <c r="A29" s="12" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>69</v>
+        <v>139</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G29" s="21" t="s">
         <v>30</v>
@@ -1872,22 +2977,22 @@
     </row>
     <row r="30" spans="1:19" s="1" customFormat="1" ht="75.75" customHeight="1">
       <c r="A30" s="12" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G30" s="21" t="s">
         <v>30</v>
@@ -1901,22 +3006,22 @@
     </row>
     <row r="31" spans="1:19" s="1" customFormat="1" ht="75.75" customHeight="1">
       <c r="A31" s="12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C31" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="E31" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>79</v>
-      </c>
       <c r="F31" s="21" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G31" s="21" t="s">
         <v>30</v>
@@ -1929,187 +3034,42 @@
       <c r="S31" s="27"/>
     </row>
     <row r="32" spans="1:19" s="1" customFormat="1" ht="75.75" customHeight="1">
-      <c r="A32" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="G32" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
       <c r="P32" s="27"/>
       <c r="Q32" s="27"/>
       <c r="R32" s="27"/>
       <c r="S32" s="27"/>
     </row>
-    <row r="33" spans="1:19" s="1" customFormat="1" ht="75.75" customHeight="1">
-      <c r="A33" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F33" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="G33" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
+    <row r="33" spans="1:19" s="1" customFormat="1">
       <c r="P33" s="27"/>
       <c r="Q33" s="27"/>
       <c r="R33" s="27"/>
       <c r="S33" s="27"/>
     </row>
-    <row r="34" spans="1:19" s="1" customFormat="1" ht="75.75" customHeight="1">
-      <c r="A34" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F34" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="G34" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="P34" s="27"/>
-      <c r="Q34" s="27"/>
-      <c r="R34" s="27"/>
-      <c r="S34" s="27"/>
-    </row>
-    <row r="35" spans="1:19" s="1" customFormat="1" ht="75.75" customHeight="1">
-      <c r="A35" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="F35" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="G35" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="P35" s="27"/>
-      <c r="Q35" s="27"/>
-      <c r="R35" s="27"/>
-      <c r="S35" s="27"/>
-    </row>
-    <row r="36" spans="1:19" s="1" customFormat="1" ht="75.75" customHeight="1">
-      <c r="A36" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F36" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="G36" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="P36" s="27"/>
-      <c r="Q36" s="27"/>
-      <c r="R36" s="27"/>
-      <c r="S36" s="27"/>
-    </row>
-    <row r="37" spans="1:19" s="1" customFormat="1" ht="75.75" customHeight="1">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="P37" s="27"/>
-      <c r="Q37" s="27"/>
-      <c r="R37" s="27"/>
-      <c r="S37" s="27"/>
-    </row>
-    <row r="38" spans="1:19" s="1" customFormat="1">
-      <c r="P38" s="27"/>
-      <c r="Q38" s="27"/>
-      <c r="R38" s="27"/>
-      <c r="S38" s="27"/>
+    <row r="35" spans="1:19">
+      <c r="A35" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="18"/>
     </row>
     <row r="40" spans="1:19">
-      <c r="A40" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19">
-      <c r="A41" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="B41" s="18"/>
-    </row>
-    <row r="45" spans="1:19">
-      <c r="A45" s="10"/>
+      <c r="A40" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2127,10 +3087,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S45"/>
+  <dimension ref="A1:S44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="E34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7265625" defaultRowHeight="15.5"/>
@@ -2326,13 +3286,13 @@
         <v>26</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>36</v>
+        <v>146</v>
       </c>
       <c r="D20" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>37</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>38</v>
       </c>
       <c r="F20" s="21" t="s">
         <v>30</v>
@@ -2349,19 +3309,19 @@
     </row>
     <row r="21" spans="1:19" s="1" customFormat="1" ht="45">
       <c r="A21" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>40</v>
+        <v>147</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="F21" s="21" t="s">
         <v>30</v>
@@ -2378,19 +3338,19 @@
     </row>
     <row r="22" spans="1:19" s="1" customFormat="1" ht="45">
       <c r="A22" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>44</v>
+        <v>148</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="F22" s="21" t="s">
         <v>30</v>
@@ -2407,16 +3367,16 @@
     </row>
     <row r="23" spans="1:19" s="1" customFormat="1" ht="70.5" customHeight="1">
       <c r="A23" s="12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>29</v>
@@ -2436,19 +3396,19 @@
     </row>
     <row r="24" spans="1:19" s="1" customFormat="1" ht="75.75" customHeight="1">
       <c r="A24" s="12" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F24" s="21" t="s">
         <v>30</v>
@@ -2465,19 +3425,19 @@
     </row>
     <row r="25" spans="1:19" s="1" customFormat="1" ht="75.75" customHeight="1">
       <c r="A25" s="12" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>33</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F25" s="21" t="s">
         <v>30</v>
@@ -2494,19 +3454,19 @@
     </row>
     <row r="26" spans="1:19" s="1" customFormat="1" ht="75.75" customHeight="1">
       <c r="A26" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F26" s="21" t="s">
         <v>30</v>
@@ -2523,19 +3483,19 @@
     </row>
     <row r="27" spans="1:19" s="1" customFormat="1" ht="75.75" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F27" s="21" t="s">
         <v>30</v>
@@ -2552,19 +3512,19 @@
     </row>
     <row r="28" spans="1:19" s="1" customFormat="1" ht="75.75" customHeight="1">
       <c r="A28" s="12" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>33</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F28" s="21" t="s">
         <v>30</v>
@@ -2581,19 +3541,19 @@
     </row>
     <row r="29" spans="1:19" s="1" customFormat="1" ht="75.75" customHeight="1">
       <c r="A29" s="12" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F29" s="21" t="s">
         <v>30</v>
@@ -2610,19 +3570,19 @@
     </row>
     <row r="30" spans="1:19" s="1" customFormat="1" ht="75.75" customHeight="1">
       <c r="A30" s="12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F30" s="21" t="s">
         <v>30</v>
@@ -2639,19 +3599,19 @@
     </row>
     <row r="31" spans="1:19" s="1" customFormat="1" ht="75.75" customHeight="1">
       <c r="A31" s="12" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F31" s="21" t="s">
         <v>30</v>
@@ -2668,19 +3628,19 @@
     </row>
     <row r="32" spans="1:19" s="1" customFormat="1" ht="75.75" customHeight="1">
       <c r="A32" s="12" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F32" s="21" t="s">
         <v>30</v>
@@ -2697,19 +3657,19 @@
     </row>
     <row r="33" spans="1:19" s="1" customFormat="1" ht="75.75" customHeight="1">
       <c r="A33" s="12" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>85</v>
+        <v>149</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>33</v>
+        <v>140</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>86</v>
+        <v>150</v>
       </c>
       <c r="F33" s="21" t="s">
         <v>30</v>
@@ -2726,19 +3686,19 @@
     </row>
     <row r="34" spans="1:19" s="1" customFormat="1" ht="75.75" customHeight="1">
       <c r="A34" s="12" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>86</v>
+        <v>142</v>
       </c>
       <c r="F34" s="21" t="s">
         <v>30</v>
@@ -2755,19 +3715,19 @@
     </row>
     <row r="35" spans="1:19" s="1" customFormat="1" ht="75.75" customHeight="1">
       <c r="A35" s="12" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B35" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>92</v>
+        <v>151</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>93</v>
+        <v>152</v>
       </c>
       <c r="F35" s="21" t="s">
         <v>30</v>
@@ -2783,71 +3743,465 @@
       <c r="S35" s="27"/>
     </row>
     <row r="36" spans="1:19" s="1" customFormat="1" ht="75.75" customHeight="1">
-      <c r="A36" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F36" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G36" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
       <c r="P36" s="27"/>
       <c r="Q36" s="27"/>
       <c r="R36" s="27"/>
       <c r="S36" s="27"/>
     </row>
-    <row r="37" spans="1:19" s="1" customFormat="1" ht="75.75" customHeight="1">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
+    <row r="37" spans="1:19" s="1" customFormat="1">
       <c r="P37" s="27"/>
       <c r="Q37" s="27"/>
       <c r="R37" s="27"/>
       <c r="S37" s="27"/>
     </row>
-    <row r="38" spans="1:19" s="1" customFormat="1">
-      <c r="P38" s="27"/>
-      <c r="Q38" s="27"/>
-      <c r="R38" s="27"/>
-      <c r="S38" s="27"/>
+    <row r="39" spans="1:19">
+      <c r="A39" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="40" spans="1:19">
-      <c r="A40" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19">
-      <c r="A41" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="B41" s="18"/>
-    </row>
-    <row r="45" spans="1:19">
-      <c r="A45" s="10"/>
+      <c r="A40" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" s="18"/>
+    </row>
+    <row r="44" spans="1:19">
+      <c r="A44" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B8:C8"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:S30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.7265625" defaultRowHeight="15.5"/>
+  <cols>
+    <col min="1" max="1" width="30.1796875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="35.7265625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="38" style="2" customWidth="1"/>
+    <col min="5" max="5" width="33.453125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="25.54296875" style="2" customWidth="1"/>
+    <col min="7" max="8" width="20.81640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.453125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="20.54296875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.54296875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="20.54296875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="15.453125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="32.26953125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="16.453125" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="11.7265625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6">
+        <v>44497</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="4"/>
+      <c r="B6" s="7"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="F16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="19"/>
+    </row>
+    <row r="17" spans="1:19" s="1" customFormat="1" ht="30">
+      <c r="A17" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+    </row>
+    <row r="18" spans="1:19" s="1" customFormat="1" ht="45">
+      <c r="A18" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="22"/>
+      <c r="I18" s="23"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+    </row>
+    <row r="19" spans="1:19" s="1" customFormat="1" ht="45">
+      <c r="A19" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="22"/>
+      <c r="I19" s="23"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+    </row>
+    <row r="20" spans="1:19" s="1" customFormat="1" ht="45">
+      <c r="A20" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="22"/>
+      <c r="I20" s="23"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+    </row>
+    <row r="21" spans="1:19" s="1" customFormat="1" ht="70.5" customHeight="1">
+      <c r="A21" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="22"/>
+      <c r="I21" s="23"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+    </row>
+    <row r="22" spans="1:19" s="1" customFormat="1" ht="75.75" customHeight="1">
+      <c r="A22" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+    </row>
+    <row r="23" spans="1:19" s="1" customFormat="1" ht="75.75" customHeight="1">
+      <c r="A23" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+    </row>
+    <row r="24" spans="1:19" s="1" customFormat="1" ht="75.75" customHeight="1">
+      <c r="A24" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+    </row>
+    <row r="25" spans="1:19" s="1" customFormat="1" ht="75.75" customHeight="1">
+      <c r="A25" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
+    </row>
+    <row r="26" spans="1:19" s="1" customFormat="1" ht="75.75" customHeight="1">
+      <c r="A26" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="27"/>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="10"/>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2857,7 +4211,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S35"/>
   <sheetViews>
@@ -2998,16 +4352,16 @@
         <v>25</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="F18" s="21" t="s">
         <v>30</v>
@@ -3027,16 +4381,16 @@
         <v>31</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="F19" s="21" t="s">
         <v>30</v>
@@ -3056,16 +4410,16 @@
         <v>35</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="F20" s="21" t="s">
         <v>30</v>
@@ -3082,19 +4436,19 @@
     </row>
     <row r="21" spans="1:19" s="1" customFormat="1" ht="70.5" customHeight="1">
       <c r="A21" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="F21" s="21" t="s">
         <v>30</v>
@@ -3111,19 +4465,19 @@
     </row>
     <row r="22" spans="1:19" s="1" customFormat="1" ht="75.75" customHeight="1">
       <c r="A22" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="F22" s="21" t="s">
         <v>30</v>
@@ -3140,19 +4494,19 @@
     </row>
     <row r="23" spans="1:19" s="1" customFormat="1" ht="75.75" customHeight="1">
       <c r="A23" s="12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>33</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="F23" s="21" t="s">
         <v>30</v>
@@ -3169,19 +4523,19 @@
     </row>
     <row r="24" spans="1:19" s="1" customFormat="1" ht="75.75" customHeight="1">
       <c r="A24" s="12" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="F24" s="21" t="s">
         <v>30</v>
@@ -3198,19 +4552,19 @@
     </row>
     <row r="25" spans="1:19" s="1" customFormat="1" ht="75.75" customHeight="1">
       <c r="A25" s="12" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="F25" s="21" t="s">
         <v>30</v>
@@ -3227,19 +4581,19 @@
     </row>
     <row r="26" spans="1:19" s="1" customFormat="1" ht="75.75" customHeight="1">
       <c r="A26" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>33</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="F26" s="21" t="s">
         <v>30</v>
@@ -3277,441 +4631,20 @@
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="16" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="17" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B31" s="18"/>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B8:C8"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:S30"/>
-  <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7265625" defaultRowHeight="15.5"/>
-  <cols>
-    <col min="1" max="1" width="30.1796875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="35.7265625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="38" style="2" customWidth="1"/>
-    <col min="5" max="5" width="33.453125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="25.54296875" style="2" customWidth="1"/>
-    <col min="7" max="8" width="20.81640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="21.453125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="20.54296875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.54296875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="20.54296875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="15.453125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="32.26953125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="16.453125" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="11.7265625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6">
-        <v>44497</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="4"/>
-      <c r="B6" s="7"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="B11" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="F16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="19"/>
-    </row>
-    <row r="17" spans="1:19" s="1" customFormat="1" ht="30">
-      <c r="A17" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-    </row>
-    <row r="18" spans="1:19" s="1" customFormat="1" ht="45">
-      <c r="A18" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="22"/>
-      <c r="I18" s="23"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="27"/>
-    </row>
-    <row r="19" spans="1:19" s="1" customFormat="1" ht="45">
-      <c r="A19" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19" s="22"/>
-      <c r="I19" s="23"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="27"/>
-    </row>
-    <row r="20" spans="1:19" s="1" customFormat="1" ht="45">
-      <c r="A20" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20" s="22"/>
-      <c r="I20" s="23"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="27"/>
-    </row>
-    <row r="21" spans="1:19" s="1" customFormat="1" ht="70.5" customHeight="1">
-      <c r="A21" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="22"/>
-      <c r="I21" s="23"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
-    </row>
-    <row r="22" spans="1:19" s="1" customFormat="1" ht="75.75" customHeight="1">
-      <c r="A22" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="27"/>
-    </row>
-    <row r="23" spans="1:19" s="1" customFormat="1" ht="75.75" customHeight="1">
-      <c r="A23" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-    </row>
-    <row r="24" spans="1:19" s="1" customFormat="1" ht="75.75" customHeight="1">
-      <c r="A24" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="27"/>
-    </row>
-    <row r="25" spans="1:19" s="1" customFormat="1" ht="75.75" customHeight="1">
-      <c r="A25" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="27"/>
-    </row>
-    <row r="26" spans="1:19" s="1" customFormat="1" ht="75.75" customHeight="1">
-      <c r="A26" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="27"/>
-      <c r="S26" s="27"/>
-    </row>
-    <row r="27" spans="1:19">
-      <c r="A27" s="10"/>
-    </row>
-    <row r="29" spans="1:19">
-      <c r="A29" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19">
-      <c r="A30" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="B30" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3861,16 +4794,16 @@
         <v>25</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>33</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="F18" s="21" t="s">
         <v>30</v>
@@ -3890,16 +4823,16 @@
         <v>31</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="F19" s="21" t="s">
         <v>30</v>
@@ -3919,16 +4852,16 @@
         <v>35</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="F20" s="21" t="s">
         <v>30</v>
@@ -3945,19 +4878,19 @@
     </row>
     <row r="21" spans="1:19" s="1" customFormat="1" ht="45">
       <c r="A21" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="F21" s="21" t="s">
         <v>30</v>
@@ -3974,19 +4907,19 @@
     </row>
     <row r="22" spans="1:19" s="1" customFormat="1" ht="45">
       <c r="A22" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="F22" s="21" t="s">
         <v>30</v>
@@ -4003,19 +4936,19 @@
     </row>
     <row r="23" spans="1:19" s="1" customFormat="1" ht="70.5" customHeight="1">
       <c r="A23" s="12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="F23" s="21" t="s">
         <v>30</v>
@@ -4032,19 +4965,19 @@
     </row>
     <row r="24" spans="1:19" s="1" customFormat="1" ht="75.75" customHeight="1">
       <c r="A24" s="12" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B24" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>123</v>
       </c>
       <c r="F24" s="21" t="s">
         <v>30</v>
@@ -4082,15 +5015,15 @@
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="16" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:19">
       <c r="A29" s="17" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B29" s="18"/>
     </row>
@@ -4245,16 +5178,16 @@
         <v>25</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="F18" s="21" t="s">
         <v>30</v>
@@ -4274,16 +5207,16 @@
         <v>31</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="F19" s="21" t="s">
         <v>30</v>
@@ -4303,16 +5236,16 @@
         <v>35</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="F20" s="21" t="s">
         <v>30</v>
@@ -4329,19 +5262,19 @@
     </row>
     <row r="21" spans="1:19" s="1" customFormat="1" ht="45">
       <c r="A21" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>33</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="F21" s="21" t="s">
         <v>30</v>
@@ -4358,19 +5291,19 @@
     </row>
     <row r="22" spans="1:19" s="1" customFormat="1" ht="45">
       <c r="A22" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>33</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="F22" s="21" t="s">
         <v>30</v>
@@ -4408,15 +5341,15 @@
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="16" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="17" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B27" s="18"/>
     </row>
@@ -4571,16 +5504,16 @@
         <v>25</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="F18" s="21" t="s">
         <v>30</v>
@@ -4600,16 +5533,16 @@
         <v>31</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F19" s="21" t="s">
         <v>30</v>
@@ -4629,16 +5562,16 @@
         <v>35</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="F20" s="21" t="s">
         <v>30</v>
@@ -4676,15 +5609,15 @@
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="16" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="17" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B25" s="18"/>
     </row>
